--- a/data/income_statement/2digits/size/50_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/50_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>50-Water transport</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>50-Water transport</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,416 +841,471 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>2726018.90856</v>
+        <v>2081164.09662</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>3205574.30053</v>
+        <v>2417691.04625</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>4654468.22916</v>
+        <v>3787477.68032</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>5122366.415229999</v>
+        <v>4358694.281260001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>4197916.47704</v>
+        <v>3404815.71141</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>5522566.765280001</v>
+        <v>4880199.45561</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>6721651.2459</v>
+        <v>5936656.162389999</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>7200038.09603</v>
+        <v>6293318.38582</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>10115094.8996</v>
+        <v>9212582.66756</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>10808026.11141</v>
+        <v>9969751.053790001</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>12216312.168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>11119069.46888</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>14989868.285</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1367240.72704</v>
+        <v>1248371.66255</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1528508.19593</v>
+        <v>1367498.10329</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>2187676.09739</v>
+        <v>2049306.47609</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>2708202.8001</v>
+        <v>2521103.16173</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>2350744.69515</v>
+        <v>2145856.26739</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>3065810.24595</v>
+        <v>2849902.33435</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>3740628.50884</v>
+        <v>3425110.60512</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>4129146.47128</v>
+        <v>3750821.33213</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>5907368.03102</v>
+        <v>5527131.95263</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>6037336.65943</v>
+        <v>5717679.61058</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>7313129.26418</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>6703385.74411</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>8766872.253</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>1344097.30402</v>
+        <v>830009.18802</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>1619700.25936</v>
+        <v>1003927.24397</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>2214652.96364</v>
+        <v>1527268.1976</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>2374520.6451</v>
+        <v>1817875.30027</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1793001.66831</v>
+        <v>1228263.0628</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>2386122.596669999</v>
+        <v>1990820.97228</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>2900397.30178</v>
+        <v>2472233.95513</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>2987866.02782</v>
+        <v>2492998.85642</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>4068767.88464</v>
+        <v>3611396.08222</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>4645563.53454</v>
+        <v>4149486.23785</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>4774860.86522</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>4311438.939560001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>6121886.597</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>14680.8775</v>
+        <v>2783.24605</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>57365.84524</v>
+        <v>46265.69899</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>252139.16813</v>
+        <v>210903.00663</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>39642.97003</v>
+        <v>19715.81926</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>54170.11358</v>
+        <v>30696.38122</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>70633.92266000001</v>
+        <v>39476.14898</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>80625.43528000001</v>
+        <v>39311.60214</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>83025.59692999999</v>
+        <v>49498.19727</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>138958.98394</v>
+        <v>74054.63271000001</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>125125.91744</v>
+        <v>102585.20536</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>128322.0386</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>104244.78521</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>101109.435</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>53920.57583</v>
+        <v>51037.09538</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>70978.19783</v>
+        <v>65003.81771</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>83603.78609000001</v>
+        <v>79707.84665000001</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>55945.51254</v>
+        <v>52799.67634000001</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>43703.70928</v>
+        <v>37620.51891</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>94197.08233</v>
+        <v>91290.78420000001</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>144152.82747</v>
+        <v>139966.20885</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>195055.7902</v>
+        <v>179883.01823</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>267765.31901</v>
+        <v>249148.79203</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>449306.40606</v>
+        <v>395490.08918</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>614096.1491800001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>573887.01539</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>705995.519</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>35908.63182</v>
+        <v>33253.05626</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>47813.69711</v>
+        <v>45850.22861</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>42642.65148000001</v>
+        <v>42217.12228</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>45223.38845999999</v>
+        <v>43680.83074</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>32824.88256000001</v>
+        <v>29262.90232</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>64183.16461</v>
+        <v>62526.46112000001</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>86286.79454999999</v>
+        <v>83557.06378</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>118489.20025</v>
+        <v>108297.75414</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>201158.47258</v>
+        <v>186026.9066</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>335712.17951</v>
+        <v>283167.79614</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>425012.40416</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>386629.93804</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>450678.834</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>15660.82385</v>
+        <v>15540.44182</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>16608.20524</v>
+        <v>16597.29875</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>35255.7649</v>
+        <v>34776.88783</v>
       </c>
       <c r="F11" s="48" t="n">
         <v>7123.18426</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>8857.067710000001</v>
+        <v>8357.61659</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>27341.68452</v>
+        <v>26679.72119</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>54228.30285</v>
+        <v>53069.00155</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>73454.01497</v>
+        <v>68474.39281999999</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>66116.26904</v>
+        <v>63005.07675</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>113232.75267</v>
+        <v>111969.99029</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>188464.12707</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>186637.4594</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>255289.537</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>2351.12016</v>
+        <v>2243.5973</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>6556.295480000001</v>
+        <v>2556.29035</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>5705.36971</v>
+        <v>2713.83654</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>3598.93982</v>
+        <v>1995.66134</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>2021.75901</v>
+        <v>0</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>2672.2332</v>
+        <v>2084.60189</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>3637.73007</v>
+        <v>3340.14352</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>3112.57498</v>
+        <v>3110.87127</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>490.57739</v>
+        <v>116.80868</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>361.47388</v>
+        <v>352.30275</v>
       </c>
       <c r="M12" s="48" t="n">
         <v>619.61795</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>27.148</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>2672098.33273</v>
+        <v>2030127.00124</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>3134596.1027</v>
+        <v>2352687.22854</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>4570864.44307</v>
+        <v>3707769.83367</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>5066420.90269</v>
+        <v>4305894.60492</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>4154212.76776</v>
+        <v>3367195.1925</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>5428369.682949999</v>
+        <v>4788908.67141</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>6577498.418430001</v>
+        <v>5796689.95354</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>7004982.30583</v>
+        <v>6113435.36759</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>9847329.58059</v>
+        <v>8963433.875530001</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>10358719.70535</v>
+        <v>9574260.964610001</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>11602216.01882</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>10545182.45349</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>14283872.766</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>2380354.3355</v>
+        <v>1804911.16131</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>2681394.91681</v>
+        <v>1999443.64985</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>3970678.08237</v>
+        <v>3237945.5371</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>4429677.19997</v>
+        <v>3748652.46729</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>3671567.83947</v>
+        <v>2993674.87788</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>4514961.81122</v>
+        <v>4007740.82368</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>5271668.7785</v>
+        <v>4659860.76354</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>5811656.25764</v>
+        <v>5171994.25016</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>8317549.78095</v>
+        <v>7721458.594059999</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>8785323.214390002</v>
+        <v>8389526.23872</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>9637043.374749999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>9018857.135370001</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>11806716.806</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>111838.43346</v>
+        <v>111822.16136</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>12076.24986</v>
+        <v>12010.55964</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>584.9665200000001</v>
+        <v>0</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>27362.59541</v>
+        <v>179.27805</v>
       </c>
       <c r="G15" s="48" t="n">
         <v>0</v>
@@ -1358,232 +1314,262 @@
         <v>0</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>27920.90638</v>
+        <v>0</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>1447656.39158</v>
+        <v>1444777.14377</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>1335.72577</v>
+        <v>0</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>3059.25905</v>
+        <v>0</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>3679.29034</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>33683.72697</v>
+        <v>10530.57798</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>29675.25457</v>
+        <v>11701.35543</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>17607.74122</v>
+        <v>17231.83281</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>25252.96477</v>
+        <v>12827.55</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>17293.54684</v>
+        <v>4590.18464</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>8133.28007</v>
+        <v>4015.41399</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>173804.19548</v>
+        <v>169941.01772</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>98788.21126000001</v>
+        <v>93478.93869999998</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>80497.29807999999</v>
+        <v>75069.89155</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>72327.36333999998</v>
+        <v>71999.07601999999</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2836413.11574</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2836352.76337</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>107481.951</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>2234221.94507</v>
+        <v>1682558.42197</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>2566480.37499</v>
+        <v>1902624.29772</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>3758657.01265</v>
+        <v>3044857.00412</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>4359668.381920001</v>
+        <v>3722248.06725</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>3598397.06162</v>
+        <v>2973213.53049</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>4473742.940939999</v>
+        <v>3973278.22753</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>5008375.84773</v>
+        <v>4429118.76879</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>4234341.067840001</v>
+        <v>3603537.80298</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>8180937.43581</v>
+        <v>7596007.07151</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>8638641.715039998</v>
+        <v>8247492.521029999</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>6732512.344269999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>6118279.17584</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>11627871.448</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>610.23</v>
+        <v>0</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>73163.03739</v>
+        <v>73107.43706</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>193828.36198</v>
+        <v>175856.70017</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>17393.25787</v>
+        <v>13397.57199</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>55877.23101</v>
+        <v>15871.16275</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>33085.59021</v>
+        <v>30447.18216</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>61567.82891</v>
+        <v>60800.97703</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>30870.58696</v>
+        <v>30200.36471</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>54779.32129</v>
+        <v>50381.631</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>71294.87695999999</v>
+        <v>70034.64167</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>64438.6244</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>64225.19616</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>71363.40700000001</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>291743.99723</v>
+        <v>225215.83993</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>453201.18589</v>
+        <v>353243.57869</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>600186.3607000001</v>
+        <v>469824.29657</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>636743.7027200001</v>
+        <v>557242.13763</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>482644.92829</v>
+        <v>373520.31462</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>913407.87173</v>
+        <v>781167.84773</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1305829.63993</v>
+        <v>1136829.19</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1193326.04819</v>
+        <v>941441.1174300001</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>1529779.79964</v>
+        <v>1241975.28147</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1573396.49096</v>
+        <v>1184734.72589</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1965172.64407</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1526325.31812</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2477155.96</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>267875.80545</v>
+        <v>148014.04916</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>283463.67312</v>
+        <v>206706.38162</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>330223.10467</v>
+        <v>226449.93377</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>370456.83545</v>
+        <v>304146.37402</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>323453.86001</v>
+        <v>221134.38894</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>373086.04642</v>
+        <v>281211.98431</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>436404.25853</v>
+        <v>356080.67128</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>518104.65527</v>
+        <v>450378.60843</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>632279.08423</v>
+        <v>549053.6182799999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>575060.09294</v>
+        <v>498408.77511</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>597258.3932200001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>489176.84523</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>736581.903</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>0.45678</v>
+        <v>0</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>1.64238</v>
+        <v>0</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>1.04916</v>
+        <v>0</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>0</v>
@@ -1606,443 +1592,503 @@
       <c r="M21" s="48" t="n">
         <v>325.89763</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>10688.69</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>78877.87835</v>
+        <v>35331.64926999999</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>79867.88634</v>
+        <v>77884.45915000001</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>40662.09209</v>
+        <v>24595.4149</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>67351.8257</v>
+        <v>66817.67908999999</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>49730.64628</v>
+        <v>20391.68063</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>42870.69672</v>
+        <v>25824.17262</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>36719.0797</v>
+        <v>35335.70725</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>56628.48157</v>
+        <v>56562.41736</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>59246.54555</v>
+        <v>57412.3417</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>52875.31304</v>
+        <v>36340.22837</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>51258.65449</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>32901.77845</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>26405.087</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>188997.9271</v>
+        <v>112682.39989</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>203595.33</v>
+        <v>128821.92247</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>289559.3702</v>
+        <v>201854.51887</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>303103.96059</v>
+        <v>237328.69493</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>273723.21373</v>
+        <v>200742.70831</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>330215.3497</v>
+        <v>255387.81169</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>399643.46454</v>
+        <v>320703.24974</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>461408.43626</v>
+        <v>393748.45363</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>573000.03868</v>
+        <v>491608.77658</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>522184.7799</v>
+        <v>462068.54674</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>545673.8411000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>455949.16915</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>699488.126</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>23868.19178</v>
+        <v>77201.79077000001</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>169737.51277</v>
+        <v>146537.19707</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>269963.25603</v>
+        <v>243374.3628</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>266286.86727</v>
+        <v>253095.76361</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>159191.06828</v>
+        <v>152385.92568</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>540321.8253100001</v>
+        <v>499955.86342</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>869425.3814000001</v>
+        <v>780748.5187200001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>675221.39292</v>
+        <v>491062.509</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>897500.7154099999</v>
+        <v>692921.66319</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>998336.3980200001</v>
+        <v>686325.9507800001</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1367914.25085</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1037148.47289</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1740574.057</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>978501.0803799999</v>
+        <v>476890.88907</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>739757.60922</v>
+        <v>431650.50047</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>757022.99372</v>
+        <v>429795.03843</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1426845.42974</v>
+        <v>1094477.84835</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>794132.1535</v>
+        <v>433678.39312</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1406490.39331</v>
+        <v>908763.1927700001</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1306100.52077</v>
+        <v>800880.6396799999</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1479616.32235</v>
+        <v>1110954.85139</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>2459219.39482</v>
+        <v>1957257.05046</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>6402426.70301</v>
+        <v>4457020.99259</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>5732433.19225</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>4828584.017</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>5590132.692</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>6972.0318</v>
+        <v>4510.75666</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>9419.881240000001</v>
+        <v>5898.23291</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>31132.40679</v>
+        <v>5331.489280000001</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>68328.9809</v>
+        <v>10728.75939</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>24891.19815</v>
+        <v>5350.622969999999</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>99171.20555000001</v>
+        <v>8778.085070000001</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>57311.70286999999</v>
+        <v>10339.93417</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>95172.48737999999</v>
+        <v>88986.21114999999</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>70152.11634000001</v>
+        <v>8260.63589</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>13300.90636</v>
+        <v>12936.5266</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>21808.34624</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>21800.37767</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>14526.888</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>160599.73455</v>
+        <v>7786.32529</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>4117.10485</v>
+        <v>3112.20485</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>15630.9783</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>242407.82144</v>
+        <v>241878.86576</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>17862.4797</v>
+        <v>3506.18093</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>240320.02324</v>
+        <v>225358.07788</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>58258.26891</v>
+        <v>10264.25361</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>59496.14032999999</v>
+        <v>45743.02686</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>246225.65871</v>
+        <v>200234.8863</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>194306.51894</v>
+        <v>125628.0301</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>388684.17371</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>245334.30427</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>205002.063</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>54256.71126</v>
+        <v>25720.29245</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>55023.77119000001</v>
+        <v>18421.46621</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>39518.46701</v>
+        <v>24478.87692</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>54928.43016</v>
+        <v>31836.68934</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>60645.75316000001</v>
+        <v>23312.60887</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>65469.75431</v>
+        <v>34662.73465</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>79333.08779999999</v>
+        <v>31913.60068</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>96877.69703</v>
+        <v>56020.7114</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>132722.78049</v>
+        <v>76220.77747</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>138731.65713</v>
+        <v>78097.24460000001</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>103315.38776</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>33702.75628</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>73043.52</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>1370.81613</v>
+        <v>661.14228</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>1356.53926</v>
+        <v>832.5009</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>1996.97385</v>
+        <v>1472.65162</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>608.9992900000001</v>
+        <v>54.28727</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>1587.84973</v>
+        <v>57.16179</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>1980.57957</v>
+        <v>55.29143</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>1376.1547</v>
+        <v>3.777</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>1205.37442</v>
+        <v>1117.04567</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>17129.27321</v>
+        <v>1541.19646</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>4112.2934</v>
+        <v>4099.89404</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>3280.37146</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>3273.6834</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>5734.939</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>3497.50402</v>
+        <v>2347.75985</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>423.36504</v>
+        <v>206.13548</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>888.33644</v>
+        <v>598.56489</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>854.0268100000001</v>
+        <v>610.9134499999999</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>392.57779</v>
+        <v>229.77064</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>1433.61096</v>
+        <v>1030.94171</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1858.51346</v>
+        <v>1704.33176</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>1182.13525</v>
+        <v>654.85798</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>2568.22691</v>
+        <v>434.7407</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>4849.82933</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>3720.69358</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>3657.53783</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>2306.114</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>5389.89165</v>
+        <v>69.5924</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>797.30199</v>
+        <v>38.23294</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>2272.68844</v>
+        <v>1283.70736</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>272817.62174</v>
+        <v>270634.72984</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>35.04517</v>
+        <v>28.9</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>4559.65382</v>
+        <v>1361.19504</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>3265.93631</v>
+        <v>216.74378</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>31304.85406</v>
+        <v>30782.20311</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>261559.8919</v>
+        <v>260128.07078</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>112.90334</v>
+        <v>1.23123</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>1228.9032</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>705169.0808299999</v>
+        <v>410782.49432</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>632345.2786900001</v>
+        <v>376966.48422</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>614235.7106999999</v>
+        <v>340939.12936</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>724435.0804300001</v>
+        <v>495039.57716</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>633697.16382</v>
+        <v>362289.78023</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>924507.8114300001</v>
+        <v>586126.2641899999</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1032724.83772</v>
+        <v>686498.41634</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1099167.1489</v>
+        <v>804843.0665900001</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>1578171.09239</v>
+        <v>1269934.11561</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>4772054.64779</v>
+        <v>3799918.53161</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>4543132.893060001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>3968514.48582</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>4621793.273</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>12.98324</v>
+        <v>0</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,176 +2164,201 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>41232.3269</v>
+        <v>25012.52582</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>36274.36696</v>
+        <v>26175.24296</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>51347.43219000001</v>
+        <v>40059.6407</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>62464.46897</v>
+        <v>43694.02614</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>55020.08598</v>
+        <v>38903.36769</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>69047.75443</v>
+        <v>51390.60280000001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>70365.92616</v>
+        <v>58333.4895</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>95210.48498000001</v>
+        <v>82807.72863</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>150690.35487</v>
+        <v>140502.62725</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1274957.94672</v>
+        <v>431489.70508</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>667262.42324</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>552300.87173</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>667725.892</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>402723.93796</v>
+        <v>177754.38183</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>344276.67464</v>
+        <v>152416.43795</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>652908.87076</v>
+        <v>314732.77683</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>325249.64726</v>
+        <v>164694.97949</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>573326.19647</v>
+        <v>203638.49542</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>558295.47543</v>
+        <v>220303.30346</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>795074.66778</v>
+        <v>434624.8049</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1183219.6555</v>
+        <v>851925.56883</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>1529088.42119</v>
+        <v>1213549.69545</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>4677920.95588</v>
+        <v>3646857.75029</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>4658890.1301</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>4165604.44577</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>4679080.015</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>1754.31249</v>
+        <v>397.95656</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>1542.54862</v>
+        <v>208.29016</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>2395.95154</v>
+        <v>673.99374</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>2659.8795</v>
+        <v>1150.61039</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>2951.96522</v>
+        <v>1818.94638</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>4626.4726</v>
+        <v>2332.7873</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>643.52029</v>
+        <v>475.72194</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>1224.14611</v>
+        <v>2.4458</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>753.91845</v>
+        <v>152.49903</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>373.68147</v>
+        <v>0</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1700.13536</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1504.9044</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>3303.4718</v>
+        <v>1545.29995</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>826.55204</v>
+        <v>604.39437</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1254.85381</v>
+        <v>898.2837</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>6125.58233</v>
+        <v>4479.00595</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>1571.07802</v>
+        <v>1233.36577</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>2008.98018</v>
+        <v>902.62158</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>7601.68465</v>
+        <v>6145.5643</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>6019.434230000001</v>
+        <v>3164.11783</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>13783.89849</v>
+        <v>11919.85655</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>27767.76142</v>
+        <v>26537.67704</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>14148.59961</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>11272.58268</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>4862.324</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>761.73079</v>
+        <v>0</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>1463.49516</v>
+        <v>0</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>261.76786</v>
+        <v>0</v>
       </c>
       <c r="F39" s="48" t="n">
         <v>0.0065</v>
@@ -2291,70 +2367,80 @@
         <v>0</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>1.22887</v>
+        <v>0</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>478.11507</v>
+        <v>0</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>632.84187</v>
+        <v>0</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>8314.107379999999</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>0.90203</v>
+        <v>0</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>372661.21681</v>
+        <v>159278.996</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>319738.8789600001</v>
+        <v>132936.39424</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>626790.32037</v>
+        <v>291248.02732</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>283581.51492</v>
+        <v>128732.56733</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>538946.5602300001</v>
+        <v>173557.19293</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>510927.31934</v>
+        <v>180515.16224</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>738688.5382599999</v>
+        <v>385306.963</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1113152.78392</v>
+        <v>789399.37309</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>1387236.41543</v>
+        <v>1079411.38512</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>4236734.48357</v>
+        <v>3207446.498399999</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>3959232.92996</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>3590279.10023</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>4043205.369</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>45.28442</v>
+        <v>32.30118</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>17.78206</v>
@@ -2375,10 +2461,10 @@
         <v>0</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>103.88434</v>
+        <v>0</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>31.90625</v>
+        <v>0</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,362 +2516,412 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>24197.92165</v>
+        <v>16499.82814</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>20687.4178</v>
+        <v>18649.57712</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>22173.1762</v>
+        <v>21879.67109</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>32882.66401</v>
+        <v>30332.78932</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>29856.593</v>
+        <v>27028.99034</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>40731.47444</v>
+        <v>36552.73234</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>47662.80951</v>
+        <v>42696.55566</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>62086.56503</v>
+        <v>59359.63211</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>118968.17519</v>
+        <v>113751.84737</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>413044.12739</v>
+        <v>412873.57485</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>683808.46517</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>562547.85846</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>631012.322</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>510414.67665</v>
+        <v>375987.34058</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>410044.55745</v>
+        <v>280795.86079</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>898993.9365</v>
+        <v>677190.0011300001</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>461157.95422</v>
+        <v>367374.13138</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>1302856.35043</v>
+        <v>1091693.80617</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>902413.40653</v>
+        <v>742127.9234200001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1615401.71389</v>
+        <v>1284150.12167</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1138941.58658</v>
+        <v>865322.0722800001</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>1490195.97108</v>
+        <v>1227821.14931</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>3186732.71154</v>
+        <v>2735980.67913</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1927057.78763</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1237720.67777</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>2816776.885</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>95838.72132</v>
+        <v>48889.27301999999</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>109935.87767</v>
+        <v>58004.39565999999</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>169337.84811</v>
+        <v>89831.76110999999</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>116311.46561</v>
+        <v>54890.29629</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>203757.30215</v>
+        <v>149903.15861</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>237775.67726</v>
+        <v>177323.5181</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>250571.38147</v>
+        <v>157542.94608</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>212064.48354</v>
+        <v>129844.13044</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>303067.31807</v>
+        <v>234580.66913</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>597644.9965700001</v>
+        <v>465861.94431</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>764728.4353100001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>320227.926</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>327417.488</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>414575.95533</v>
+        <v>327098.06756</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>300108.67978</v>
+        <v>222791.46513</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>729656.0883899999</v>
+        <v>587358.24002</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>344846.48861</v>
+        <v>312483.83509</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>1099099.04828</v>
+        <v>941790.64756</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>664637.72927</v>
+        <v>564804.40532</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1364830.33242</v>
+        <v>1126607.17559</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>926877.1030400001</v>
+        <v>735477.94184</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>1187128.65301</v>
+        <v>993240.48018</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>2589087.71497</v>
+        <v>2270118.73482</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1162329.35232</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>917492.75177</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>2489359.397</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>89230.65755</v>
+        <v>350.9574300000002</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>155173.8899</v>
+        <v>144975.3988</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-524916.55751</v>
+        <v>-318753.37673</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>906724.69553</v>
+        <v>815504.50109</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-922859.3251200001</v>
+        <v>-709267.9827899999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>486103.3366600001</v>
+        <v>446287.82931</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-234950.4795</v>
+        <v>-137145.76817</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-167323.52681</v>
+        <v>-115230.28072</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>337435.71796</v>
+        <v>208807.86889</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-463890.56639</v>
+        <v>-1239491.48605</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>514399.52537</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>462407.36635</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-165150.151</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>179921.02412</v>
+        <v>145901.71911</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>154938.44499</v>
+        <v>122241.35223</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>251134.40355</v>
+        <v>100585.27893</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>121688.66006</v>
+        <v>78505.34191</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>269385.02151</v>
+        <v>42476.15215000001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>182363.69385</v>
+        <v>71566.63237000001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>215554.3574</v>
+        <v>99191.38539</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>272967.14786</v>
+        <v>142188.24461</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>304235.83859</v>
+        <v>96392.18703</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>335637.90997</v>
+        <v>159824.23432</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>968937.83276</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>776809.78224</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>408749.612</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>161.89011</v>
+        <v>90.25075</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>2683.44373</v>
+        <v>1242.88</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>21126.05961</v>
+        <v>491.60719</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>2216.64619</v>
+        <v>1768.5224</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>1256.67322</v>
+        <v>81.14064</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>1727.80745</v>
+        <v>384.44043</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>457.57779</v>
+        <v>290.82957</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>23039.74782</v>
+        <v>3245.45824</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>1492.30142</v>
+        <v>464.41393</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>3877.78002</v>
+        <v>1222.61145</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>9331.09309</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>8850.422189999999</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>17368.278</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>179759.13401</v>
+        <v>145811.46836</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>152255.00126</v>
+        <v>120998.47223</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>230008.34394</v>
+        <v>100093.67174</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>119472.01387</v>
+        <v>76736.81951</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>268128.34829</v>
+        <v>42395.01151</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>180635.8864</v>
+        <v>71182.19194</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>215096.77961</v>
+        <v>98900.55581999999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>249927.40004</v>
+        <v>138942.78637</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>302743.53717</v>
+        <v>95927.77310000001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>331760.12995</v>
+        <v>158601.62287</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>959606.7396699999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>767959.36005</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>391381.334</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>69003.18698</v>
+        <v>47458.9658</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>187036.25173</v>
+        <v>90168.15214000001</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>330844.07775</v>
+        <v>123350.19899</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>93606.96199000001</v>
+        <v>70343.00904</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>95373.14451</v>
+        <v>74072.05662999999</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>212489.17171</v>
+        <v>110109.35124</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>158274.87664</v>
+        <v>91486.39134</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>259381.24715</v>
+        <v>125305.05331</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>235492.85945</v>
+        <v>69760.30041</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>45580.88336</v>
+        <v>30312.2727</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>178151.09119</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>162307.84968</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>106904.852</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2792,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>1093.59843</v>
+        <v>0</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>0</v>
@@ -2801,10 +2942,10 @@
         <v>0</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>12253.72699</v>
+        <v>0</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>99.13301</v>
+        <v>0</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>0</v>
@@ -2815,203 +2956,231 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>6238.890899999999</v>
+        <v>199.40608</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>16509.00423</v>
+        <v>2586.85873</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>5814.4256</v>
+        <v>1699.25505</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>4218.630099999999</v>
+        <v>1884.66884</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>6365.64542</v>
+        <v>364.90913</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>6249.444050000001</v>
+        <v>2490.28178</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>6672.87965</v>
+        <v>2132.37357</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>29901.02577</v>
+        <v>13333.45235</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>12735.57919</v>
+        <v>1316.88935</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>2724.22989</v>
+        <v>1976.64271</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>15290.61375</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>14186.20817</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>45044.82</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>62764.29608</v>
+        <v>47259.55972</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>170527.2475</v>
+        <v>87581.29341000001</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>325029.65215</v>
+        <v>121650.94394</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>88294.73345999999</v>
+        <v>68458.34020000001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>89007.49909</v>
+        <v>73707.14750000001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>206239.72766</v>
+        <v>107619.06946</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>139348.27</v>
+        <v>89354.01776999999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>229381.08837</v>
+        <v>111971.60096</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>222757.28026</v>
+        <v>68443.41106</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>42856.65347</v>
+        <v>28335.62999</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>162860.47744</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>148121.64151</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>61860.032</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>200148.49469</v>
+        <v>98793.71073999999</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>123076.08316</v>
+        <v>177048.59889</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-604626.23171</v>
+        <v>-341518.2967899999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>934806.3936000001</v>
+        <v>823666.8339600001</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-748847.44812</v>
+        <v>-740863.8872699999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>455977.8588</v>
+        <v>407745.11044</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-177670.99874</v>
+        <v>-129440.77412</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-153737.6261</v>
+        <v>-98347.08942</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>406178.6971</v>
+        <v>235439.75551</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-173833.53978</v>
+        <v>-1109979.52443</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1305186.26694</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1076909.29891</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>136694.609</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>7985.12948</v>
+        <v>4240.968100000001</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>4467.5157</v>
+        <v>1960.11134</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>12189.03141</v>
+        <v>8136.34505</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>25957.79853</v>
+        <v>23402.33102</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>15719.85498</v>
+        <v>10660.44871</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>16040.29583</v>
+        <v>14216.61546</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>19155.2494</v>
+        <v>14689.7769</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>28150.45046</v>
+        <v>21252.24889</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>43942.37901999999</v>
+        <v>39553.17528</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>85873.94323</v>
+        <v>65959.7784</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>58334.52133</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>46298.56747</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>83198.338</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>192163.36521</v>
+        <v>94552.74264</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>118608.56746</v>
+        <v>175088.48755</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-616815.26312</v>
+        <v>-349654.64184</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>908848.59507</v>
+        <v>800264.5029399999</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-764567.3031</v>
+        <v>-751524.33598</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>439937.56297</v>
+        <v>393528.49498</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-196826.24814</v>
+        <v>-144130.55102</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-181888.07656</v>
+        <v>-119599.33831</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>362236.31808</v>
+        <v>195886.58023</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-259707.48301</v>
+        <v>-1175939.30283</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1246851.74561</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1030610.73144</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>53496.271</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>141</v>
+        <v>31</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>